--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="134">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,157 +58,157 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>worth</t>
@@ -781,10 +781,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>94</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>439</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.9777777777777777</v>
@@ -1138,32 +1138,8 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.09848484848484848</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>221</v>
-      </c>
-      <c r="E9">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>119</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.9722222222222222</v>
@@ -1189,7 +1165,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.9655172413793104</v>
@@ -1215,7 +1191,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0.9545454545454546</v>
@@ -1241,7 +1217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.9444444444444444</v>
@@ -1267,7 +1243,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0.9333333333333333</v>
@@ -1293,7 +1269,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.9117647058823529</v>
@@ -1319,7 +1295,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.9090909090909091</v>
@@ -1345,7 +1321,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.905982905982906</v>
@@ -1371,7 +1347,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.8936170212765957</v>
@@ -1397,7 +1373,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0.8888888888888888</v>
@@ -1423,7 +1399,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
         <v>0.8807339449541285</v>
@@ -1449,7 +1425,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.8740157480314961</v>
@@ -1475,7 +1451,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>0.8666666666666667</v>
@@ -1501,7 +1477,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.8666666666666667</v>
@@ -1527,7 +1503,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.8666666666666667</v>
@@ -1553,7 +1529,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>0.85</v>
@@ -1579,7 +1555,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0.8461538461538461</v>
@@ -1605,7 +1581,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>0.8421052631578947</v>
@@ -1631,7 +1607,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>0.84</v>
@@ -1657,7 +1633,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
         <v>0.8095238095238095</v>
@@ -1683,7 +1659,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>0.8012820512820513</v>
@@ -1709,7 +1685,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>0.7857142857142857</v>
@@ -1735,7 +1711,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>0.7801418439716312</v>
@@ -1761,7 +1737,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>0.7676767676767676</v>
@@ -1787,59 +1763,59 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.7444933920704846</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L33">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>0.7222222222222222</v>
@@ -1865,111 +1841,111 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.7222222222222222</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.7121212121212122</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L37">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N37">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="O37">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>0.7111111111111111</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N38">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O38">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L39">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="M39">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>0.6857142857142857</v>
@@ -1995,7 +1971,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41">
         <v>0.6666666666666666</v>
@@ -2021,7 +1997,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42">
         <v>0.6666666666666666</v>
@@ -2047,7 +2023,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43">
         <v>0.6614173228346457</v>
@@ -2073,7 +2049,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44">
         <v>0.6585365853658537</v>
@@ -2099,7 +2075,7 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45">
         <v>0.6521739130434783</v>
@@ -2125,7 +2101,7 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K46">
         <v>0.6470588235294118</v>
@@ -2151,28 +2127,28 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="K47">
-        <v>0.636085626911315</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L47">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="M47">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2180,25 +2156,25 @@
         <v>60</v>
       </c>
       <c r="K48">
-        <v>0.631578947368421</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L48">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>105</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2206,25 +2182,25 @@
         <v>61</v>
       </c>
       <c r="K49">
-        <v>0.6296296296296297</v>
+        <v>0.625</v>
       </c>
       <c r="L49">
+        <v>15</v>
+      </c>
+      <c r="M49">
         <v>17</v>
       </c>
-      <c r="M49">
-        <v>18</v>
-      </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2232,25 +2208,25 @@
         <v>62</v>
       </c>
       <c r="K50">
-        <v>0.625</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N50">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="O50">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2258,25 +2234,25 @@
         <v>63</v>
       </c>
       <c r="K51">
-        <v>0.6129032258064516</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L51">
+        <v>30</v>
+      </c>
+      <c r="M51">
+        <v>31</v>
+      </c>
+      <c r="N51">
+        <v>0.97</v>
+      </c>
+      <c r="O51">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
         <v>19</v>
-      </c>
-      <c r="M51">
-        <v>22</v>
-      </c>
-      <c r="N51">
-        <v>0.86</v>
-      </c>
-      <c r="O51">
-        <v>0.14</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>12</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2284,25 +2260,25 @@
         <v>64</v>
       </c>
       <c r="K52">
-        <v>0.6122448979591837</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="10:17">
